--- a/Testzahlen/raw_data/Testzahlen-gesamt_2021-03-24.xlsx
+++ b/Testzahlen/raw_data/Testzahlen-gesamt_2021-03-24.xlsx
@@ -2,18 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Wissdaten\RKI_nCoV-Lage\3.Kommunikation\4.6.Laborergebnisse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA0E44-26E0-45CC-A6B9-5444A3DE4E6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029A93A3-8711-4D4D-BD8B-1394B3D60BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22650" windowHeight="10185" tabRatio="319" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0_Erläuterungen" sheetId="7" r:id="rId1"/>
+    <sheet name="0_Erläuterungen" sheetId="1" r:id="rId1"/>
     <sheet name="1_Testzahlerfassung" sheetId="2" r:id="rId2"/>
     <sheet name="1_Testzahlerfassung kurz" sheetId="3" r:id="rId3"/>
     <sheet name="2_Testkapazitäten" sheetId="4" r:id="rId4"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
   <si>
     <t>Das RKI erfasst wöchentlich die SARS-CoV-2-Testzahlen. Hierfür werden deutschlandweit Daten von Universitätskliniken, Forschungseinrichtungen sowie klinischen und ambulanten Laboren zusammengeführt. Die Erfassung basiert auf einer freiwilligen Mitteilung der Labore und erfolgt über eine webbasierte Plattform (VOXCO, RKI-Testlaborabfrage) oder in Zusammenarbeit mit der am RKI etablierten, laborbasierten SARS-CoV-2-Surveillance (eine Erweiterung der Antibiotika-Resistenz-Surveillance, ARS), dem Netzwerk für respiratorische Viren (RespVir) sowie der Abfrage eines labormedizinischen Berufsverbands. Die Erfassung liefert Hinweise zur aktuellen Situation in den Laboren, erlaubt aber keine detaillierten Auswertungen oder Vergleiche mit den gemeldeten Fallzahlen.</t>
   </si>
@@ -156,79 +151,82 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>Bis einschließlich KW53/2020</t>
+    <t>Bis einschließlich KW1/2021</t>
+  </si>
+  <si>
+    <t>2/2021</t>
+  </si>
+  <si>
+    <t>3/2021</t>
+  </si>
+  <si>
+    <t>4/2021</t>
+  </si>
+  <si>
+    <t>5/2021</t>
+  </si>
+  <si>
+    <t>6/2021</t>
+  </si>
+  <si>
+    <t>7/2021</t>
+  </si>
+  <si>
+    <t>8/2021</t>
+  </si>
+  <si>
+    <t>9/2021</t>
+  </si>
+  <si>
+    <t>10/2021</t>
+  </si>
+  <si>
+    <t>11/2021</t>
+  </si>
+  <si>
+    <t>KW, für die die Angabe prognostisch erfolgt ist</t>
+  </si>
+  <si>
+    <t>Anzahl übermittelnde Labore</t>
+  </si>
+  <si>
+    <t>Testkapazität pro Tag</t>
+  </si>
+  <si>
+    <t>Theoretische wöchentliche Kapazität anhand von Wochenarbeitstagen</t>
+  </si>
+  <si>
+    <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
+  </si>
+  <si>
+    <t>46/2020</t>
+  </si>
+  <si>
+    <t>47/2020</t>
+  </si>
+  <si>
+    <t>48/2020</t>
+  </si>
+  <si>
+    <t>49/2020</t>
+  </si>
+  <si>
+    <t>50/2020</t>
+  </si>
+  <si>
+    <t>51/2020</t>
+  </si>
+  <si>
+    <t>52/2020</t>
+  </si>
+  <si>
+    <t>53/2020</t>
   </si>
   <si>
     <t>1/2021</t>
   </si>
   <si>
-    <t>2/2021</t>
-  </si>
-  <si>
-    <t>3/2021</t>
-  </si>
-  <si>
-    <t>4/2021</t>
-  </si>
-  <si>
-    <t>5/2021</t>
-  </si>
-  <si>
-    <t>6/2021</t>
-  </si>
-  <si>
-    <t>7/2021</t>
-  </si>
-  <si>
-    <t>8/2021</t>
-  </si>
-  <si>
-    <t>9/2021</t>
-  </si>
-  <si>
-    <t>10/2021</t>
-  </si>
-  <si>
-    <t>KW, für die die Angabe prognostisch erfolgt ist</t>
-  </si>
-  <si>
-    <t>Anzahl übermittelnde Labore</t>
-  </si>
-  <si>
-    <t>Testkapazität pro Tag</t>
-  </si>
-  <si>
-    <t>Theoretische wöchentliche Kapazität anhand von Wochenarbeitstagen</t>
-  </si>
-  <si>
-    <t>Reale Testkapazität zum Zeitpunkt der Abfrage</t>
-  </si>
-  <si>
-    <t>46/2020</t>
-  </si>
-  <si>
-    <t>47/2020</t>
-  </si>
-  <si>
-    <t>48/2020</t>
-  </si>
-  <si>
-    <t>49/2020</t>
-  </si>
-  <si>
-    <t>50/2020</t>
-  </si>
-  <si>
-    <t>51/2020</t>
-  </si>
-  <si>
-    <t>52/2020</t>
-  </si>
-  <si>
-    <t>53/2020</t>
-  </si>
-  <si>
-    <t>11/2021</t>
+    <t>12/2021</t>
   </si>
   <si>
     <t>Labore mit Rückstau</t>
@@ -238,52 +236,14 @@
   </si>
   <si>
     <t>Probenrückstau</t>
-  </si>
-  <si>
-    <t>Bisher haben sich mehr als 250 Labore für die RKI-Testlaborabfrage oder in einem der anderen übermittelnden Netzwerke registriert und übermitteln nach Aufruf überwiegend wöchentlich. Da Labore in der RKI-Testzahlabfrage  die  Tests  der  vergangenen Kalenderwochen nachmelden bzw. korrigieren können, ist es möglich, dass sich die ermittelten Zahlen nachträglich ändern. Es ist zu beachten, dass die Zahl der Tests nicht mit der Zahl der getesteten Personen gleichzusetzen ist, da in den Angaben Mehrfachtestungen von Patienten enthalten sein können (s. Testzahlerfassung).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zusätzlich zur Anzahl durchgeführter Tests werden in der RKI-Testlaborabfrage und durch einen labormedizinischen Berufsverband Angaben zur täglichen (aktuellen) Testkapazität, zur Reichweite sowie zu möglichen Probenrückstaus befragt. Die Reichweite gibt an, wie viele Arbeitstage ein Labor unter Vollauslastung  der angegebenen maximalen Testkapazität unter Berücksichtigung aller notwendigen Ressourcen (Entnahmematerial, Testreagenzien, Personal u. a.) zum Zeitpunkt der Abfrage arbeiten kann. Da die Reichweite stark  vom Vorhandensein von Testreagenzien abhängig ist, stellt die Angabe eine Momentaufnahme in einem dynamischen System dar (s. Testkapazitäten, Probenrückstau). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -299,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -307,86 +267,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{3EFF19E7-C5B7-44E9-A0B9-6F4F2BE4905E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,61 +328,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60443AA9-CE07-4914-99AC-138FC2548922}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4803321" y="1524000"/>
-          <a:ext cx="10058400" cy="4470400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,36 +626,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABAE72F-11AC-453B-BAF1-7F0DE6F6E080}">
-  <dimension ref="A3:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="140.85546875" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="122.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:1" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -790,969 +653,980 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
-        <v>66906</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1717</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
+      <c r="B2">
+        <v>69184</v>
+      </c>
+      <c r="C2">
+        <v>1722</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>128008</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>7470</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>5.835572776701456</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>374534</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>25886</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>6.9115220514025424</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>377599</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>33139</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>8.7762414625038723</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>417646</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>37649</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>9.0145721496195339</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>386241</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>30829</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>7.9818041067623575</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>339983</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>22724</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>6.6838636049449534</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>363659</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>18127</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>4.984614707734444</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>327799</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>12600</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>3.8438189256221036</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>385638</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>10181</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>2.6400406598934754</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>431682</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>7142</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>1.6544586061035669</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>356489</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>5315</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>1.4909295939005129</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>408078</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>4335</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>1.0622969138252982</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>342328</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>3219</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>0.94032623682550076</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>327980</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>2956</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>0.90127446795536315</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>384834</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>5588</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>1.452054652135726</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>472823</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>3919</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>0.82885138836308725</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>512969</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>3204</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>0.62459914731689448</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>513572</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>3042</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>0.59232201132460494</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>544219</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>3608</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21">
         <v>0.66296840058873363</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>556634</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>4537</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22">
         <v>0.81507777103087486</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>589201</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>5888</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>0.99931941731259788</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24">
         <v>719476</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>7374</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24">
         <v>1.0249125752631083</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25">
         <v>871191</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>8545</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25">
         <v>0.98084117030593754</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26">
         <v>1034449</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>8868</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>0.85726797551160094</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>1133623</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>8273</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27">
         <v>0.72978406401422702</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>1052942</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>8203</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>0.77905525660482722</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>1148465</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>10403</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29">
         <v>0.90581776545214709</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>1147879</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>13647</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30">
         <v>1.1888883758654005</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>1220279</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>15178</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31">
         <v>1.2438139146867233</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32">
         <v>1129127</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>19930</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32">
         <v>1.7650804559628812</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>1218988</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>30220</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33">
         <v>2.4791056187591676</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34">
         <v>1284349</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>46000</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34">
         <v>3.581581018866367</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35">
         <v>1445463</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>80097</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35">
         <v>5.5412694755936336</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36">
         <v>1663992</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>118111</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36">
         <v>7.0980509521680393</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37">
         <v>1634729</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>128537</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37">
         <v>7.8628934826506418</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37">
         <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38">
         <v>1467454</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>128986</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38">
         <v>8.789781485484383</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38">
         <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39">
         <v>1400145</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>131185</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39">
         <v>9.3693867420874266</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40">
         <v>1381117</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40">
         <v>128882</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40">
         <v>9.3317220771303226</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40">
         <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41">
         <v>1395790</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>138305</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41">
         <v>9.9087255246133008</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42">
         <v>1516038</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42">
         <v>169520</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42">
         <v>11.181777765464981</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42">
         <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43">
         <v>1672033</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43">
         <v>188283</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43">
         <v>11.260722724970142</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44">
         <v>1090372</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44">
         <v>141413</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44">
         <v>12.969243524228427</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45">
         <v>845729</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45">
         <v>129930</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45">
         <v>15.363077297810529</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45">
         <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46">
+        <v>1231405</v>
+      </c>
+      <c r="C46">
+        <v>157772</v>
+      </c>
+      <c r="D46">
+        <v>12.812356617035011</v>
+      </c>
+      <c r="E46">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="8">
-        <v>1231405</v>
-      </c>
-      <c r="C46" s="8">
-        <v>157772</v>
-      </c>
-      <c r="D46" s="9">
-        <v>12.812356617035011</v>
-      </c>
-      <c r="E46" s="7">
+      <c r="B47">
+        <v>1187564</v>
+      </c>
+      <c r="C47">
+        <v>124037</v>
+      </c>
+      <c r="D47">
+        <v>10.44465814052969</v>
+      </c>
+      <c r="E47">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="8">
-        <v>1187564</v>
-      </c>
-      <c r="C47" s="8">
-        <v>124037</v>
-      </c>
-      <c r="D47" s="9">
-        <v>10.44465814052969</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="B48">
+        <v>1113690</v>
+      </c>
+      <c r="C48">
+        <v>110163</v>
+      </c>
+      <c r="D48">
+        <v>9.8917113379845372</v>
+      </c>
+      <c r="E48">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>1151633</v>
+      </c>
+      <c r="C49">
+        <v>97383</v>
+      </c>
+      <c r="D49">
+        <v>8.456079323881827</v>
+      </c>
+      <c r="E49">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>1101499</v>
+      </c>
+      <c r="C50">
+        <v>82436</v>
+      </c>
+      <c r="D50">
+        <v>7.4839831901799272</v>
+      </c>
+      <c r="E50">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>1060602</v>
+      </c>
+      <c r="C51">
+        <v>67882</v>
+      </c>
+      <c r="D51">
+        <v>6.4003273612533258</v>
+      </c>
+      <c r="E51">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>1101687</v>
+      </c>
+      <c r="C52">
+        <v>67318</v>
+      </c>
+      <c r="D52">
+        <v>6.1104469781344424</v>
+      </c>
+      <c r="E52">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1110190</v>
-      </c>
-      <c r="C48" s="8">
-        <v>110014</v>
-      </c>
-      <c r="D48" s="9">
-        <v>9.9094749547374779</v>
-      </c>
-      <c r="E48" s="7">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="8">
-        <v>1148018</v>
-      </c>
-      <c r="C49" s="8">
-        <v>97256</v>
-      </c>
-      <c r="D49" s="9">
-        <v>8.4716441728265597</v>
-      </c>
-      <c r="E49" s="7">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="8">
-        <v>1097419</v>
-      </c>
-      <c r="C50" s="8">
-        <v>82288</v>
-      </c>
-      <c r="D50" s="9">
-        <v>7.4983210605976387</v>
-      </c>
-      <c r="E50" s="7">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="8">
-        <v>1056768</v>
-      </c>
-      <c r="C51" s="8">
-        <v>67774</v>
-      </c>
-      <c r="D51" s="9">
-        <v>6.4133281855620154</v>
-      </c>
-      <c r="E51" s="7">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="11">
-        <v>1098665</v>
-      </c>
-      <c r="C52" s="11">
-        <v>67211</v>
-      </c>
-      <c r="D52" s="12">
-        <v>6.1175153481725548</v>
-      </c>
-      <c r="E52" s="10">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
+      <c r="B53">
+        <v>1170335</v>
+      </c>
+      <c r="C53">
+        <v>72008</v>
+      </c>
+      <c r="D53">
+        <v>6.1527682244827337</v>
+      </c>
+      <c r="E53">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="11">
-        <v>1170335</v>
-      </c>
-      <c r="C53" s="11">
-        <v>72008</v>
-      </c>
-      <c r="D53" s="12">
-        <v>6.1527682244827337</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="B54">
+        <v>1148449</v>
+      </c>
+      <c r="C54">
+        <v>71380</v>
+      </c>
+      <c r="D54">
+        <v>6.2153391225905548</v>
+      </c>
+      <c r="E54">
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="11">
-        <v>1147877</v>
-      </c>
-      <c r="C54" s="11">
-        <v>71377</v>
-      </c>
-      <c r="D54" s="12">
-        <v>6.2181749438310892</v>
-      </c>
-      <c r="E54" s="10">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
+      <c r="B55">
+        <v>1275239</v>
+      </c>
+      <c r="C55">
+        <v>85297</v>
+      </c>
+      <c r="D55">
+        <v>6.6887069796328369</v>
+      </c>
+      <c r="E55">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="11">
-        <v>1248100</v>
-      </c>
-      <c r="C55" s="11">
-        <v>84480</v>
-      </c>
-      <c r="D55" s="15">
-        <v>6.7686884063776942</v>
-      </c>
-      <c r="E55" s="10">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="B56">
+        <v>1352448</v>
+      </c>
+      <c r="C56">
+        <v>107026</v>
+      </c>
+      <c r="D56">
+        <v>7.9135020348286957</v>
+      </c>
+      <c r="E56">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="13">
-        <v>47578793</v>
-      </c>
-      <c r="C56" s="13">
-        <v>2847182</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="7"/>
+      <c r="B57">
+        <v>48979281</v>
+      </c>
+      <c r="C57">
+        <v>2955672</v>
+      </c>
+      <c r="D57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1765,1201 +1639,1196 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8">
-        <v>36082452</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1912965</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="6">
+        <v>37316135</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2070742</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8">
-        <v>1231405</v>
-      </c>
-      <c r="C3" s="8">
-        <v>157772</v>
-      </c>
-      <c r="D3" s="21">
-        <v>12.812356617035011</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="B3" s="7">
+        <v>1187564</v>
+      </c>
+      <c r="C3" s="7">
+        <v>124037</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10.44465814052969</v>
+      </c>
+      <c r="E3" s="4">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="8">
-        <v>1187564</v>
-      </c>
-      <c r="C4" s="8">
-        <v>124037</v>
-      </c>
-      <c r="D4" s="21">
-        <v>10.44465814052969</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="B4" s="7">
+        <v>1113690</v>
+      </c>
+      <c r="C4" s="7">
+        <v>110163</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.8917113379845372</v>
+      </c>
+      <c r="E4" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1151633</v>
+      </c>
+      <c r="C5" s="7">
+        <v>97383</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.456079323881827</v>
+      </c>
+      <c r="E5" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1101499</v>
+      </c>
+      <c r="C6" s="7">
+        <v>82436</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7.4839831901799272</v>
+      </c>
+      <c r="E6" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1060602</v>
+      </c>
+      <c r="C7" s="7">
+        <v>67882</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6.4003273612533258</v>
+      </c>
+      <c r="E7" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1101687</v>
+      </c>
+      <c r="C8" s="7">
+        <v>67318</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6.1104469781344424</v>
+      </c>
+      <c r="E8" s="4">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1110190</v>
-      </c>
-      <c r="C5" s="8">
-        <v>110014</v>
-      </c>
-      <c r="D5" s="21">
-        <v>9.9094749547374779</v>
-      </c>
-      <c r="E5" s="22">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1148018</v>
-      </c>
-      <c r="C6" s="8">
-        <v>97256</v>
-      </c>
-      <c r="D6" s="21">
-        <v>8.4716441728265597</v>
-      </c>
-      <c r="E6" s="22">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1097419</v>
-      </c>
-      <c r="C7" s="8">
-        <v>82288</v>
-      </c>
-      <c r="D7" s="21">
-        <v>7.4983210605976387</v>
-      </c>
-      <c r="E7" s="22">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1056768</v>
-      </c>
-      <c r="C8" s="8">
-        <v>67774</v>
-      </c>
-      <c r="D8" s="21">
-        <v>6.4133281855620154</v>
-      </c>
-      <c r="E8" s="22">
-        <v>211</v>
-      </c>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="8">
-        <v>1098665</v>
-      </c>
-      <c r="C9" s="8">
-        <v>67211</v>
-      </c>
-      <c r="D9" s="21">
-        <v>6.1175153481725548</v>
-      </c>
-      <c r="E9" s="22">
-        <v>205</v>
+      <c r="B9" s="7">
+        <v>1170335</v>
+      </c>
+      <c r="C9" s="7">
+        <v>72008</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6.1527682244827337</v>
+      </c>
+      <c r="E9" s="4">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="8">
-        <v>1170335</v>
-      </c>
-      <c r="C10" s="8">
-        <v>72008</v>
-      </c>
-      <c r="D10" s="21">
-        <v>6.1527682244827337</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="B10" s="7">
+        <v>1148449</v>
+      </c>
+      <c r="C10" s="7">
+        <v>71380</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.2153391225905548</v>
+      </c>
+      <c r="E10" s="4">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="8">
-        <v>1147877</v>
-      </c>
-      <c r="C11" s="8">
-        <v>71377</v>
-      </c>
-      <c r="D11" s="21">
-        <v>6.2181749438310892</v>
-      </c>
-      <c r="E11" s="22">
-        <v>208</v>
+      <c r="B11" s="7">
+        <v>1275239</v>
+      </c>
+      <c r="C11" s="7">
+        <v>85297</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.6887069796328369</v>
+      </c>
+      <c r="E11" s="4">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="8">
-        <v>1248100</v>
-      </c>
-      <c r="C12" s="8">
-        <v>84480</v>
-      </c>
-      <c r="D12" s="21">
-        <v>6.7686884063776942</v>
-      </c>
-      <c r="E12" s="22">
-        <v>203</v>
+      <c r="B12" s="7">
+        <v>1352448</v>
+      </c>
+      <c r="C12" s="7">
+        <v>107026</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7.9135020348286957</v>
+      </c>
+      <c r="E12" s="4">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="13">
-        <v>47578793</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2847182</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="7">
+        <v>48979281</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2955672</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:E55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>16920</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2">
         <v>80300</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>40950</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>38</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>33620</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>164050</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>119700</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>107</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>78360</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>149820</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>367630</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>126</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>117030</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>165960</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5">
         <v>531380</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>132</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>128580</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>375420</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6">
         <v>664960</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>138</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>139604</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>831046</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7">
         <v>670650</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>135</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>140616</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>901595</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8">
         <v>700399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>138</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>144980</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>955891</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9">
         <v>730541</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>135</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>151063</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>981515.00199999998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10">
         <v>831816</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>139</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>156630</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>1030122.5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>873162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>139</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>159588</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>1057365.5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12">
         <v>882561</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>146</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>159974</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>1033129</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13">
         <v>880441</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>146</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>167525</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>1115162.5</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>939801</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15">
         <v>144</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>169653</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>1096075</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15">
         <v>974698</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16">
         <v>141</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>169858</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>1123147.5</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>996309</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>143</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>172624</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>1131748</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17">
         <v>994060</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18">
         <v>147</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>170313</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>1120015</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18">
         <v>1003758</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19">
         <v>152</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>179914</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
         <v>1196640.0000100001</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19">
         <v>1020962</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20">
         <v>155</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>181011</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>1202855</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20">
         <v>1041871</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21">
         <v>155</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>183567</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>1218086</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21">
         <v>1040331</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22">
         <v>159</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>183310</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
         <v>1214556</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22">
         <v>1065190</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23">
         <v>158</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>182697</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>1200692</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23">
         <v>1046485</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24">
         <v>155</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>189338</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>1252357</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <v>1005162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25">
         <v>164</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>198518</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>1308423</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <v>1081246</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26">
         <v>171</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>208419</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>1362883</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <v>1189057</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27">
         <v>171</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>211002</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>1376233</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <v>1153222</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28">
         <v>171</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>223899</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>1458751</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <v>1206487</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29">
         <v>172</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>230691</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29">
         <v>1512155</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <v>1280683</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>174</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>235674</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>1540049</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <v>1377447</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31">
         <v>169</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>238740</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31">
         <v>1564437</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <v>1454962</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32">
         <v>173</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>258089</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>1705581</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <v>1595907</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33">
         <v>173</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>255622</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33">
         <v>1700116</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33">
         <v>1557060</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34">
         <v>188</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>268521</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34">
         <v>1790564</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34">
         <v>1632858</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35">
         <v>183</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>285630</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35">
         <v>1910486</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35">
         <v>1703929</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36">
         <v>185</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>297894</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36">
         <v>1937312</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36">
         <v>1732058</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37">
         <v>182</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>305683</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37">
         <v>2020253</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37">
         <v>1787673</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38">
         <v>181</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>313386</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38">
         <v>2079778</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38">
         <v>1893368</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39">
         <v>177</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>320686</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39">
         <v>2141208</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39">
         <v>1921326</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40">
         <v>181</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40">
         <v>329486</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40">
         <v>2202408</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40">
         <v>2016366</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41">
         <v>180</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>333476</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41">
         <v>2235788</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41">
         <v>2008132</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42">
         <v>180</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42">
         <v>342616</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42">
         <v>2290632</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42">
         <v>2094092</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43">
         <v>187</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43">
         <v>338390</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43">
         <v>1465033.7</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43">
         <v>1331929</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44">
         <v>185</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44">
         <v>331055</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44">
         <v>1331534.94</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44">
         <v>1264753</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45">
+        <v>183</v>
+      </c>
+      <c r="C45">
+        <v>335608</v>
+      </c>
+      <c r="D45">
+        <v>2129456</v>
+      </c>
+      <c r="E45">
+        <v>2058917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B46">
         <v>183</v>
       </c>
-      <c r="C45" s="8">
-        <v>335608</v>
-      </c>
-      <c r="D45" s="8">
-        <v>2129456</v>
-      </c>
-      <c r="E45" s="8">
-        <v>2058917</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="C46">
+        <v>338746</v>
+      </c>
+      <c r="D46">
+        <v>2248174</v>
+      </c>
+      <c r="E46">
+        <v>2103510</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B47">
+        <v>182</v>
+      </c>
+      <c r="C47">
+        <v>347237</v>
+      </c>
+      <c r="D47">
+        <v>2321303</v>
+      </c>
+      <c r="E47">
+        <v>2221047</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>183</v>
       </c>
-      <c r="C46" s="8">
-        <v>338746</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2248174</v>
-      </c>
-      <c r="E46" s="8">
-        <v>2103510</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="C48">
+        <v>354177</v>
+      </c>
+      <c r="D48">
+        <v>2368097</v>
+      </c>
+      <c r="E48">
+        <v>2247760</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
         <v>182</v>
       </c>
-      <c r="C47" s="8">
-        <v>347237</v>
-      </c>
-      <c r="D47" s="8">
-        <v>2321303</v>
-      </c>
-      <c r="E47" s="8">
-        <v>2221047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="8">
+      <c r="C49">
+        <v>354011</v>
+      </c>
+      <c r="D49">
+        <v>2376839</v>
+      </c>
+      <c r="E49">
+        <v>2270208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>183</v>
+      </c>
+      <c r="C50">
+        <v>354485</v>
+      </c>
+      <c r="D50">
+        <v>2378145</v>
+      </c>
+      <c r="E50">
+        <v>2319187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>187</v>
+      </c>
+      <c r="C51">
+        <v>350601</v>
+      </c>
+      <c r="D51">
+        <v>2344259.7142857141</v>
+      </c>
+      <c r="E51">
+        <v>2294630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
         <v>182</v>
       </c>
-      <c r="C48" s="8">
-        <v>353577</v>
-      </c>
-      <c r="D48" s="8">
-        <v>2363897</v>
-      </c>
-      <c r="E48" s="8">
-        <v>2245960</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8">
-        <v>181</v>
-      </c>
-      <c r="C49" s="8">
-        <v>353411</v>
-      </c>
-      <c r="D49" s="8">
-        <v>2372639</v>
-      </c>
-      <c r="E49" s="8">
-        <v>2268408</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="8">
-        <v>182</v>
-      </c>
-      <c r="C50" s="8">
-        <v>353885</v>
-      </c>
-      <c r="D50" s="8">
-        <v>2373945</v>
-      </c>
-      <c r="E50" s="8">
-        <v>2317387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="C52">
+        <v>363562</v>
+      </c>
+      <c r="D52">
+        <v>2440610</v>
+      </c>
+      <c r="E52">
+        <v>2389366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>184</v>
+      </c>
+      <c r="C53">
+        <v>359285</v>
+      </c>
+      <c r="D53">
+        <v>2389189</v>
+      </c>
+      <c r="E53">
+        <v>2358917</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
         <v>185</v>
       </c>
-      <c r="C51" s="8">
-        <v>349801</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2339059.7142857141</v>
-      </c>
-      <c r="E51" s="8">
-        <v>2291430</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="8">
-        <v>181</v>
-      </c>
-      <c r="C52" s="8">
-        <v>362962</v>
-      </c>
-      <c r="D52" s="8">
-        <v>2436410</v>
-      </c>
-      <c r="E52" s="8">
-        <v>2387566</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="11">
+      <c r="C54">
+        <v>357585</v>
+      </c>
+      <c r="D54">
+        <v>2380539</v>
+      </c>
+      <c r="E54">
+        <v>2345917</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
         <v>184</v>
       </c>
-      <c r="C53" s="11">
-        <v>359285</v>
-      </c>
-      <c r="D53" s="11">
-        <v>2389189</v>
-      </c>
-      <c r="E53" s="11">
-        <v>2358917</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10">
-        <v>185</v>
-      </c>
-      <c r="C54" s="11">
-        <v>357585</v>
-      </c>
-      <c r="D54" s="11">
-        <v>2380539</v>
-      </c>
-      <c r="E54" s="11">
-        <v>2345917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="23">
-        <v>177</v>
-      </c>
-      <c r="C55" s="23">
-        <v>353081</v>
-      </c>
-      <c r="D55" s="24">
-        <v>2368883</v>
-      </c>
-      <c r="E55" s="24">
-        <v>2348249</v>
+      <c r="C55">
+        <v>359831</v>
+      </c>
+      <c r="D55">
+        <v>2406883</v>
+      </c>
+      <c r="E55">
+        <v>2383699</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>175</v>
+      </c>
+      <c r="C56">
+        <v>349419</v>
+      </c>
+      <c r="D56">
+        <v>2341793</v>
+      </c>
+      <c r="E56">
+        <v>2313645</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2971,242 +2840,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>183</v>
+      </c>
+      <c r="C2">
+        <v>335608</v>
+      </c>
+      <c r="D2">
+        <v>2129456</v>
+      </c>
+      <c r="E2">
+        <v>2058917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>183</v>
+      </c>
+      <c r="C3">
+        <v>338746</v>
+      </c>
+      <c r="D3">
+        <v>2248174</v>
+      </c>
+      <c r="E3">
+        <v>2103510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>182</v>
+      </c>
+      <c r="C4">
+        <v>347237</v>
+      </c>
+      <c r="D4">
+        <v>2321303</v>
+      </c>
+      <c r="E4">
+        <v>2221047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>183</v>
+      </c>
+      <c r="C5">
+        <v>354177</v>
+      </c>
+      <c r="D5">
+        <v>2368097</v>
+      </c>
+      <c r="E5">
+        <v>2247760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>182</v>
+      </c>
+      <c r="C6">
+        <v>354011</v>
+      </c>
+      <c r="D6">
+        <v>2376839</v>
+      </c>
+      <c r="E6">
+        <v>2270208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>183</v>
+      </c>
+      <c r="C7">
+        <v>354485</v>
+      </c>
+      <c r="D7">
+        <v>2378145</v>
+      </c>
+      <c r="E7">
+        <v>2319187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>187</v>
+      </c>
+      <c r="C8">
+        <v>350601</v>
+      </c>
+      <c r="D8">
+        <v>2344259.7142857141</v>
+      </c>
+      <c r="E8">
+        <v>2294630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>182</v>
+      </c>
+      <c r="C9">
+        <v>363562</v>
+      </c>
+      <c r="D9">
+        <v>2440610</v>
+      </c>
+      <c r="E9">
+        <v>2389366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10">
+        <v>184</v>
+      </c>
+      <c r="C10">
+        <v>359285</v>
+      </c>
+      <c r="D10">
+        <v>2389189</v>
+      </c>
+      <c r="E10">
+        <v>2358917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11">
         <v>185</v>
       </c>
-      <c r="C2" s="8">
-        <v>331055</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1331534.94</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1264753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="7">
-        <v>183</v>
-      </c>
-      <c r="C3" s="8">
-        <v>335608</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2129456</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2058917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7">
-        <v>183</v>
-      </c>
-      <c r="C4" s="8">
-        <v>338746</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2248174</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2103510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7">
-        <v>182</v>
-      </c>
-      <c r="C5" s="8">
-        <v>347237</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2321303</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2221047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="7">
-        <v>182</v>
-      </c>
-      <c r="C6" s="8">
-        <v>353577</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2363897</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2245960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="7">
-        <v>181</v>
-      </c>
-      <c r="C7" s="8">
-        <v>353411</v>
-      </c>
-      <c r="D7" s="8">
-        <v>2372639</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2268408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="7">
-        <v>182</v>
-      </c>
-      <c r="C8" s="8">
-        <v>353885</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2373945</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2317387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7">
-        <v>185</v>
-      </c>
-      <c r="C9" s="8">
-        <v>349801</v>
-      </c>
-      <c r="D9" s="8">
-        <v>2339059.7142857141</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2291430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="7">
-        <v>181</v>
-      </c>
-      <c r="C10" s="8">
-        <v>362962</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2436410</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2387566</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="C11">
+        <v>357585</v>
+      </c>
+      <c r="D11">
+        <v>2380539</v>
+      </c>
+      <c r="E11">
+        <v>2345917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12">
         <v>184</v>
       </c>
-      <c r="C11" s="8">
-        <v>359285</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2389189</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2358917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="7">
-        <v>185</v>
-      </c>
-      <c r="C12" s="8">
-        <v>357585</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2380539</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2345917</v>
+      <c r="C12">
+        <v>359831</v>
+      </c>
+      <c r="D12">
+        <v>2406883</v>
+      </c>
+      <c r="E12">
+        <v>2383699</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="6">
-        <v>177</v>
-      </c>
-      <c r="C13" s="13">
-        <v>353081</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2368883</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2348249</v>
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>175</v>
+      </c>
+      <c r="C13">
+        <v>349419</v>
+      </c>
+      <c r="D13">
+        <v>2341793</v>
+      </c>
+      <c r="E13">
+        <v>2313645</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3214,574 +3075,573 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" t="s">
         <v>70</v>
       </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>24</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>3423</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>35</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>2259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4">
         <v>28</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>17</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>2243</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>3790</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>29</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>19</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>3224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>29</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>1552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>1578</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>26</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>1454</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>27</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>2478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>27</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>1646</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>22</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>31</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>26</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>3056</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>21</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>27</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>25</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>28</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>3242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>22</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>29</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>1483</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>20</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>1256</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>24</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>31</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>1274</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>32</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>10693</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>44</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>33</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>17143</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>48</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>34</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>27828</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22">
         <v>49</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>35</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>36812</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23">
         <v>47</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>36</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>29964</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24">
         <v>51</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>37</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>32397</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25">
         <v>42</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>38</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25">
         <v>12617</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26">
         <v>46</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>39</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>15983</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27">
         <v>42</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>40</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>8245</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28">
         <v>46</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>41</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>16829</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29">
         <v>52</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>42</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>20799</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30">
         <v>57</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>43</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>69524</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31">
         <v>69</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>44</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31">
         <v>98931</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32">
         <v>66</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>45</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32">
         <v>60113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33">
         <v>59</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>46</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33">
         <v>23780</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34">
         <v>50</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>47</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34">
         <v>17207</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35">
         <v>54</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>48</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35">
         <v>14191</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36">
         <v>51</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>49</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36">
         <v>12267</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37">
         <v>51</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37">
         <v>50</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37">
         <v>19159</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38">
         <v>57</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38">
         <v>51</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38">
         <v>21364</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39">
         <v>43</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39">
         <v>52</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39">
         <v>11321</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40">
         <v>53</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40">
         <v>6507</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41">
         <v>47</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41">
         <v>11691</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42">
         <v>46</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42">
         <v>11336</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43">
         <v>48</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43">
         <v>11980</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44">
         <v>5572</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45">
         <v>6202</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46">
         <v>5850</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47">
         <v>7</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47">
         <v>6820</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48">
         <v>44</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>8</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48">
         <v>3767</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>37</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49">
         <v>9</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49">
         <v>3525</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>38</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50">
         <v>10</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50">
         <v>2893</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>4766</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>